--- a/Figures/Chapter_07/figures/Permission log_Chapter 7.xlsx
+++ b/Figures/Chapter_07/figures/Permission log_Chapter 7.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34620\Dropbox\AU\BOOK Solar Photovoltaics\CHAPTER 1\Permissions_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive - Universidad Politécnica de Madrid\artículos\2021 Elsevier Solar Photovoltaics\GITHUB\pv-textbook\Figures\Chapter_07\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F997A1-F4A6-44DA-A819-8CF625227A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Item upload format" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
   <si>
     <t>Chapter Title</t>
   </si>
@@ -137,96 +136,278 @@
     <t>Elsevier author and source author same   (Yes/ No)</t>
   </si>
   <si>
-    <t>Granted</t>
-  </si>
-  <si>
     <t>Fundamentals of Solar Cells and Photovoltaic Systems Engineering</t>
   </si>
   <si>
-    <t>1. Introduction to Solar Energy</t>
-  </si>
-  <si>
-    <t>Marta Victoria</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.joule.2021.03.005</t>
-  </si>
-  <si>
-    <t>Online application</t>
-  </si>
-  <si>
-    <t>mvp@mpe.au.dk</t>
-  </si>
-  <si>
-    <t>Figure 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The permission was granted without any cost. A copy of the granted persmission is attached. </t>
-  </si>
-  <si>
-    <t>Figure 1.1</t>
-  </si>
-  <si>
-    <t>Figure 1.2</t>
-  </si>
-  <si>
-    <t>Figure 1.5. Historical expansion of electricity generation technologies. Updated version from Victoria et al. (2021). Notice that a log scale is used in the vertical axis.</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Figure 1.1. Different technologies that transform solar radiation into useful energy. (a) Solar thermal collector, (b) Parabolic trough concentrated solar power (CSP), (c) Central tower CSP, (d) Solar photovoltaic modules comprised of an array of solar cells. Photos by: Masdar Official, Shmuel Harel, Bin im Garten, Marta Victoria</t>
-  </si>
-  <si>
-    <t>Creative Commons Attribution-Share Alike</t>
-  </si>
-  <si>
-    <t>https://solargis.com/maps-and-gis-data/download/world</t>
-  </si>
-  <si>
-    <t>Figure 1.2. World map showing the solar radiation indicated by equivalent hours (kWh/kW). The color code also indicates the energy payback time (EBPT) of a rooftop PV installation whose PV modules have been manufactured in China. Figure produced based on © 2020 The World Bank, Source: Global Solar Atlas 2.0, Solar resource data: Solargis.</t>
-  </si>
-  <si>
-    <t>Creative Commons Attribution license (CC BY 4.0) 
-https://globalsolaratlas.info/support/terms-of-use</t>
-  </si>
-  <si>
-    <t>Box 1.3 Brief history of photovoltaics</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:CZ_crystal_growing.jpg 
-https://commons.wikimedia.org/wiki/File:Vanguard_TV3.png 
-https://commons.wikimedia.org/wiki/File:Orbiting_Astronomical_Observatory.jpg 
-https://commons.wikimedia.org/wiki/File:Vintage_Sanyo_Model_CX2750_Amorphous_Solar_Battery_Electronic_Pocket_Calculator,_Made_In_Japan,_Circa_1985_(16141629565).jpg 
-https://commons.wikimedia.org/wiki/File:SoSchiff_Ansicht.jpg</t>
-  </si>
-  <si>
-    <t>Academic author</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Shams_solar_power_plant.jpg 
-https://commons.wikimedia.org/wiki/File:Solar_facility.jpg 
-https://commons.wikimedia.org/wiki/File:Sonnenkollektor_IMG_1298.JPG 
-https://commons.wikimedia.org/wiki/File:Rooftop_solar_photovoltaic_installation.jpg</t>
-  </si>
-  <si>
-    <t>Figure 1.7</t>
-  </si>
-  <si>
-    <t>Figure 1.7. Consumption in grams per watt of different materials comprising a PV module.</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Materials_in_solar_photovoltaic_module.tif</t>
+    <t>7. Photovoltaic modules</t>
+  </si>
+  <si>
+    <t>César Domínguez</t>
+  </si>
+  <si>
+    <t>Figure 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 7. 1. Left: two identical c-Si cells wired in series add up their voltage so the total voltage V is double that of a single cell, while the total current I is the same as that of a single cell. The figure includes the typical interconnection elements employed in PV modules. Right: parallel connection of two strings of 4 cells in series. The total current I is the sum of the two strings, and the total voltage is four times that of a single cell. </t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Sketch_of_silicon_solar_cells_interconnections.jpg</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-Share Alike 4.0 International</t>
+  </si>
+  <si>
+    <t>Figure 7.2</t>
+  </si>
+  <si>
+    <t>Figure 7.3</t>
+  </si>
+  <si>
+    <t>Figure 7.4</t>
+  </si>
+  <si>
+    <t>Figure 7.5</t>
+  </si>
+  <si>
+    <t>Figure 7.6</t>
+  </si>
+  <si>
+    <t>Figure 7.7</t>
+  </si>
+  <si>
+    <t>Figure 7.8</t>
+  </si>
+  <si>
+    <t>Figure 7.9</t>
+  </si>
+  <si>
+    <t>Figure 7.10</t>
+  </si>
+  <si>
+    <t>Figure 7.11</t>
+  </si>
+  <si>
+    <t>Figure 7.12</t>
+  </si>
+  <si>
+    <t>Figure 7.13</t>
+  </si>
+  <si>
+    <t>Figure 7.14</t>
+  </si>
+  <si>
+    <t>Figure 7.15</t>
+  </si>
+  <si>
+    <t>Figure 7.16</t>
+  </si>
+  <si>
+    <t>Figure 7.17</t>
+  </si>
+  <si>
+    <t>Figure 7.18</t>
+  </si>
+  <si>
+    <t>Figure 7.19</t>
+  </si>
+  <si>
+    <t>Figure 7.20</t>
+  </si>
+  <si>
+    <t>Figure 7.21</t>
+  </si>
+  <si>
+    <t>Figure 7.22</t>
+  </si>
+  <si>
+    <t>Figure 7.23</t>
+  </si>
+  <si>
+    <t>Figure 7.24</t>
+  </si>
+  <si>
+    <t>Figure 7.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 7. 2. Typical interconnection of standard modules. Left: single string of 36 cells in series. Right: two sub-matrices in parallel, with 60 half-cut cells in series each. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 7. 3. Wiring symbols and nomenclature employed in photovoltaic arrays or generators. Top left: generic wiring symbol for any PV device (cell, module or array). Top right: string of 3 PV modules in series. Bottom: schematic of a PV generator as a parallel connection of 4 strings through a junction box, which typically includes means of protection like a fuse per string terminal. </t>
+  </si>
+  <si>
+    <t>Figure 7. 4. Equivalent circuit of a PV module (right) for an electrical interconnection of NP strings of solar cells in parallel, with NS cells in series per string (left).</t>
+  </si>
+  <si>
+    <t>Figure 7. 5. I-V characteristic of a single solar cell, compared to that of a PV module composed of NS = 4 similar cells in series and NP =2 strings in parallel, provided every cell is identical and operates under the same conditions of irradiance, spectrum and temperature.</t>
+  </si>
+  <si>
+    <t>Figure 7. 6. The effect of varying irradiance and cell temperature on the I-V characteristic of a sample PV module (Jinko Solar c-Si module defined in Table 7. 1). Notice how the voltage decreases linearly with rising temperature (top), while the current increases linearly with irradiance (bottom). The effect of temperature on current is small and often neglected in c Si modules. In contrast, the effect of irradiance on voltage is significant, but follows a logarithmic trend.</t>
+  </si>
+  <si>
+    <t>Figure 7. 7. Simple equivalent-circuit model describing heat dissipation mechanisms in a conventional PV module. The equivalence to the popular PVsyst thermal model is shown for reference.</t>
+  </si>
+  <si>
+    <t>Figure 7. 8. Incidence angle modifier function of a typical c-Si module using a front glass with AR coating. Optical losses are very important for angles of incidence higher than 70°. The simple expression given in the Martin-Ruiz model describes accurately the actual response at steep angles.</t>
+  </si>
+  <si>
+    <t>Figure 7. 9. I-V curve resulting from the series connection of two mismatched solar cells. The operating point at V = 0 of cell B (low IL) can be found by reflecting the voltage of cell A (high IL). The resulting current is the ISC of the series connection, which is roughly the low photocurrent of cell B. The total voltage is always the sum of the voltages of both cells at each current level.</t>
+  </si>
+  <si>
+    <t>Figure 7. 10. Effect of partial shading of a single solar cell on the I-V curve of a large series connection of solar cells, when the rest are fully insolated. In the undesired (but possible) case that the module is short-circuited, the shaded cell becomes negatively biased near its breakdown voltage and dissipates a large amount of power, which can create hot spots and potentially damage the module irreversibly.</t>
+  </si>
+  <si>
+    <t>Figure 7. 11. Hot spots in solar cells can lead to local temperatures higher than 100 °C and trigger degradation and failures in PV modules in the field, such as backsheet burns or front glass cracking. In order to avoid these risks, bypass diodes are employed. (Image reproduced and adapted from Gallardo-Saavedra, S. et al., 2019. Analysis and characterization of PV module defects by thermographic inspection. Revista Facultad de Ingeniería Universidad de Antioquia, 93, pp. 92-104).</t>
+  </si>
+  <si>
+    <t>Creative Commons — Attribution 4.0 International — CC BY 4.0</t>
+  </si>
+  <si>
+    <t>a) Granted
+b) Creative Commons Attribution-NonCommercial 3.0 Unported — CC BY-NC 3.0</t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.co/scielo.php?script=sci_arttext&amp;pid=S0120-62302019000400092</t>
+  </si>
+  <si>
+    <t>a) Yes (granted)
+b) No</t>
+  </si>
+  <si>
+    <t>a) Licensed from publisher (Elsevier) at no cost with license number 5602550370986, license date Aug 05, 2023</t>
+  </si>
+  <si>
+    <t>a) https://www.sciencedirect.com/science/article/abs/pii/S0927024818303830#:~:text=The%20experimental%20results%20show%20that%20the%20average%20power,did%20not%20enlarge%20after%20the%20extended%20reliability%20tests.
+b) https://pubs.rsc.org/en/content/articlehtml/2016/ee/c6ee02271e</t>
+  </si>
+  <si>
+    <t>a) Elsevier
+b) RSC Publishing (CC BY-NC 3.0)</t>
+  </si>
+  <si>
+    <t>Scielo Portal (Creative Commons — Attribution-NonCommercial 3.0 Unported — CC BY-NC 3.0)</t>
+  </si>
+  <si>
+    <t>Figure 7. 12. Effect of partial shading of a single solar cell on the I-V curve of a large series connection of solar cells when equipped with bypass diodes in anti-parallel connection to every solar cell. Now the excess current from the fully insolated cells is diverted through the bypass diode of the shaded cell, which is only slightly negatively biased and the power to be dissipated is largely reduced (shaded areas represent the power dissipated at both the cell and the bypass diode). This in turns dramatically reduces the power drop at Pmax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 7. 13. Bypass diodes protect every string block of 20 cells in series in commercial 60-cell modules. When a part of a single string is shaded, its bypass diode conducts and diverts the current from the other two string blocks through it, to avoid an excessive reverse bias and a high local power dissipation at the shaded cells. </t>
+  </si>
+  <si>
+    <t>Figure 7. 14. Components and layers of a typical crystalline Si module</t>
+  </si>
+  <si>
+    <t>Figure 7. 15. Most usual compositions of module backsheets, with the typical nomenclature used by the industry to designate each one.</t>
+  </si>
+  <si>
+    <t>Figure 7. 16. Cross-section of a module edge with an aluminum frame. The bus ribbon terminals of the solar cell matrix exit the backsheet through some small holes; they are connected to the bypass diodes and the two module cables at the junction box.</t>
+  </si>
+  <si>
+    <t>Figure 7. 17. Centralized (left) and split (right) junction boxes with bypass diodes and connection cables for modules with three string blocks. Split boxes are used in modules with half-cut cells; they are typically located in the middle of the upper and lower cell sub-matrices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 7. 18. Typical process steps of c-Si module production. Symbol “Q” indicates quality control steps. </t>
+  </si>
+  <si>
+    <t>Figure 7. 19 Main gain and loss factors in a conventional monofacial c-Si module, with sample values.  Some of the loss factors are visually explained in Figure 7.20.</t>
+  </si>
+  <si>
+    <t>Figure 7. 20 Optical losses and gains in the encapsulation layers of a typical c-Si module: (1) Cell spacing loss; front glass and encapsulation layer (2) reflection and (3) absorption losses; (4) tabbing ribbon shading loss; (5) gain due to reduced cell reflectivity with encapsulation layer (better refractive index matching); (6) light recovery (gain) due to scattered reflection of light on cell metallization, tabbing ribbons or backsheet.</t>
+  </si>
+  <si>
+    <t>Figure 7. 21 Interconnection techniques to improve packing density: tiling (left) and shingling (right).</t>
+  </si>
+  <si>
+    <t>Figure 7. 22. Types of failures and main degradation mechanisms of PV modules. The dashed lines indicate the product and performance warranties offered by manufacturers.</t>
+  </si>
+  <si>
+    <t>Figure 7. 23. Two of the most frequent degradation mechanisms found in modern PV modules: (a) snail tracks as a discoloration of the front metallization (reproduced and adapted from Yang, H. et al., 2018. Assessing power degradation and reliability of crystalline silicon solar modules with snail trails. Solar Energy Materials and Solar Cells, 187, pp.61-68.); (b) potential-induced degradation, seen as dark cells in electroluminescence imaging (reproduced from Luo, W. et al., 2017. Potential-induced degradation in photovoltaic modules: a critical review. Energy &amp; environmental science, 10(1), pp.43-68.).</t>
+  </si>
+  <si>
+    <t>Figure 7. 24</t>
+  </si>
+  <si>
+    <t>Figure 7. 25</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:PV_module_layout.jpg</t>
+  </si>
+  <si>
+    <t>Wikimedia Commons</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Wiring_symbols_photovoltaic_arrays.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Single_diode_model_of_a_solar_cell_array.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:IV_curves_of_cell_and_module.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Variation_of_I-V_curve_with_temperatura_and_irradiance.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Thermal_model_of_a_PV_module.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Incidence_angle_modifier.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Two_mismatched_solar_cells_in_series.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:I-V_curve_of_a_module_with_a_shaded_cell_without_bypass_diode.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:I-V_curve_of_a_module_with_a_shaded_cell_with_a_bypass_diode_per_cell.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Module_layout_with_bypass_diodes.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Components_and_layers_of_a_typical_crystalline_Si_module.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Typical_PV_module_backsheet_compositions.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Edge_and_termination_of_a_PV_module.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Centralized_and_split_PV_junction_boxes.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:PV_module_production_process.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Gains_and_losses_from_cell_to_module_power.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Optical_losses_and_gains_in_the_encapsulation_layers_of_a_typical_c-Si_module.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Shingling_and_tiling_of_solar_cells.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Types_of_PV_module_failures.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Series_string_of_8_modules.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Partial_shading_of_a_series_string_of_8_modules.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +445,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +462,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -347,9 +534,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,7 +637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,23 +712,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -561,23 +747,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,48 +922,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMP7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="17"/>
     <col min="3" max="3" width="12"/>
-    <col min="4" max="4" width="20.7109375"/>
-    <col min="5" max="5" width="15.5703125"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125"/>
-    <col min="9" max="9" width="23.85546875"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125"/>
-    <col min="16" max="16" width="19.7109375"/>
+    <col min="4" max="4" width="20.6640625"/>
+    <col min="5" max="5" width="15.5546875"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875"/>
+    <col min="16" max="16" width="19.6640625"/>
     <col min="17" max="17" width="15"/>
-    <col min="18" max="18" width="15.5703125"/>
-    <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.42578125"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" customWidth="1"/>
-    <col min="25" max="25" width="24.85546875"/>
-    <col min="26" max="26" width="15.140625"/>
-    <col min="27" max="27" width="8.85546875"/>
-    <col min="28" max="28" width="15.42578125"/>
-    <col min="29" max="29" width="16.42578125"/>
-    <col min="30" max="30" width="21.85546875"/>
-    <col min="31" max="31" width="16.42578125"/>
-    <col min="32" max="32" width="13.85546875"/>
-    <col min="33" max="33" width="16.42578125"/>
-    <col min="34" max="1031" width="74.28515625"/>
+    <col min="18" max="18" width="15.5546875"/>
+    <col min="19" max="19" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.44140625"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="24.88671875"/>
+    <col min="26" max="26" width="15.109375"/>
+    <col min="28" max="28" width="15.44140625"/>
+    <col min="29" max="29" width="16.44140625"/>
+    <col min="30" max="30" width="21.88671875"/>
+    <col min="31" max="31" width="16.44140625"/>
+    <col min="32" max="32" width="13.88671875"/>
+    <col min="33" max="33" width="16.44140625"/>
+    <col min="34" max="1031" width="74.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1030" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1030" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -907,41 +1075,45 @@
       <c r="AMO1"/>
       <c r="AMP1"/>
     </row>
-    <row r="2" spans="1:1030" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -961,41 +1133,45 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:1030" ht="390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="6" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -1015,63 +1191,51 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:1030" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="P4" s="7"/>
       <c r="Q4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="9">
-        <v>44501</v>
-      </c>
-      <c r="U4" s="9">
-        <v>44501</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -1082,46 +1246,48 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:1030" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="6"/>
@@ -1141,74 +1307,809 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:1030" ht="315" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="8" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1030" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1030" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1030" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" s="13" customFormat="1" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG24" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1" xr:uid="{4A93935A-7A23-4FF1-8497-8294039BC2BA}"/>
-    <hyperlink ref="S4" r:id="rId2" xr:uid="{774DA4E7-1246-471B-B599-46A593058D22}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{5771ABEF-DA3D-40E6-875D-0E4FF18A47DC}"/>
-    <hyperlink ref="I2" r:id="rId4" display="https://commons.wikimedia.org/wiki/File:Shams_solar_power_plant.jpg" xr:uid="{449A6B0E-E3FF-4BA0-9F7D-3AEE057F46EB}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{A18A7F09-C55F-4E97-B086-1D24686D24CB}"/>
-    <hyperlink ref="Q3" r:id="rId6" xr:uid="{681F9089-BBA8-42ED-9A25-0628171C68BD}"/>
-    <hyperlink ref="I6" r:id="rId7" display="https://commons.wikimedia.org/wiki/File:CZ_crystal_growing.jpg " xr:uid="{098BBA8E-EAAD-45B4-A2C3-04A20467B047}"/>
-    <hyperlink ref="Q2" r:id="rId8" display="https://commons.wikimedia.org/wiki/File:Shams_solar_power_plant.jpg" xr:uid="{93D1DD61-BC9C-4FD8-931E-A0BAD5A95B7F}"/>
-    <hyperlink ref="I5" r:id="rId9" xr:uid="{3F2910C6-1A3A-428B-9B1D-93FE90E30B1A}"/>
-    <hyperlink ref="Q5" r:id="rId10" xr:uid="{0F62CFDD-CFA5-4077-9F5A-AEEF28CEA8D8}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="Q12" r:id="rId3"/>
+    <hyperlink ref="I12" r:id="rId4"/>
+    <hyperlink ref="Q7" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="Q8" r:id="rId8"/>
+    <hyperlink ref="I9" r:id="rId9"/>
+    <hyperlink ref="Q9" r:id="rId10"/>
+    <hyperlink ref="I10" r:id="rId11"/>
+    <hyperlink ref="Q10" r:id="rId12"/>
+    <hyperlink ref="I11" r:id="rId13"/>
+    <hyperlink ref="Q11" r:id="rId14"/>
+    <hyperlink ref="I13" r:id="rId15"/>
+    <hyperlink ref="Q13" r:id="rId16"/>
+    <hyperlink ref="I14" r:id="rId17"/>
+    <hyperlink ref="Q14" r:id="rId18"/>
+    <hyperlink ref="I15" r:id="rId19"/>
+    <hyperlink ref="Q15" r:id="rId20"/>
+    <hyperlink ref="I16" r:id="rId21"/>
+    <hyperlink ref="Q16" r:id="rId22"/>
+    <hyperlink ref="I17" r:id="rId23"/>
+    <hyperlink ref="Q17" r:id="rId24"/>
+    <hyperlink ref="I18" r:id="rId25"/>
+    <hyperlink ref="Q18" r:id="rId26"/>
+    <hyperlink ref="I19" r:id="rId27"/>
+    <hyperlink ref="Q19" r:id="rId28"/>
+    <hyperlink ref="I20" r:id="rId29"/>
+    <hyperlink ref="Q20" r:id="rId30"/>
+    <hyperlink ref="I21" r:id="rId31"/>
+    <hyperlink ref="Q21" r:id="rId32"/>
+    <hyperlink ref="I22" r:id="rId33"/>
+    <hyperlink ref="Q22" r:id="rId34"/>
+    <hyperlink ref="I23" r:id="rId35"/>
+    <hyperlink ref="Q23" r:id="rId36"/>
+    <hyperlink ref="I25" r:id="rId37"/>
+    <hyperlink ref="Q25" r:id="rId38"/>
+    <hyperlink ref="I26" r:id="rId39"/>
+    <hyperlink ref="Q26" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCellId="1" sqref="F2:F15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1217,16 +2118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCellId="1" sqref="F2:F15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
